--- a/assets/userdata.xlsx
+++ b/assets/userdata.xlsx
@@ -1,46 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Freelance Work\bawa server\nodejs-server-api1\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7740"/>
-  </bookViews>
   <sheets>
     <sheet name="userdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>familyMemberName</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -409,36 +396,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>address</v>
+      </c>
+      <c r="C1" t="str">
+        <v>number</v>
+      </c>
+      <c r="D1" t="str">
+        <v>email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>familyMemberName</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Ayyaz Butt</v>
+      </c>
+      <c r="B2" t="str">
+        <v>house</v>
+      </c>
+      <c r="C2" t="str">
+        <v>+92232312312</v>
+      </c>
+      <c r="D2" t="str">
+        <v>codementee@outlook.com</v>
+      </c>
+      <c r="E2" t="str">
+        <v>123123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/userdata.xlsx
+++ b/assets/userdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,9 +436,26 @@
         <v>123123</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Ayyaz Butt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>House no 165 Choi East Attock</v>
+      </c>
+      <c r="C3" t="str">
+        <v>+9203431215500</v>
+      </c>
+      <c r="D3" t="str">
+        <v>americanhomr@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>